--- a/TemplateExportStatisticheScuoleSucc.xlsx
+++ b/TemplateExportStatisticheScuoleSucc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacardi/Cartelle/localhost/waldorf/swapp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FF0A437-7D88-C742-89C6-8B6EDF8870C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A37029-A48C-624F-B458-7FA3D0E33E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27180" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -63,6 +63,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -142,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -161,6 +168,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight"/>
@@ -483,45 +493,48 @@
     <col min="5" max="8" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E2" s="4" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="1">
-    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
